--- a/Data/aearep-1019/candidatepackages.xlsx
+++ b/Data/aearep-1019/candidatepackages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="46">
   <si>
     <t>(Potential) missing package found</t>
   </si>
@@ -22,12 +22,6 @@
     <t>estout</t>
   </si>
   <si>
-    <t>filelist</t>
-  </si>
-  <si>
-    <t>unique</t>
-  </si>
-  <si>
     <t>diff</t>
   </si>
   <si>
@@ -40,24 +34,18 @@
     <t>missing</t>
   </si>
   <si>
-    <t>network</t>
+    <t>title</t>
   </si>
   <si>
     <t>project</t>
   </si>
   <si>
-    <t>title</t>
-  </si>
-  <si>
     <t>cluster</t>
   </si>
   <si>
     <t>hbar</t>
   </si>
   <si>
-    <t>lars</t>
-  </si>
-  <si>
     <t>combine</t>
   </si>
   <si>
@@ -67,15 +55,6 @@
     <t>care</t>
   </si>
   <si>
-    <t>next</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>zip</t>
-  </si>
-  <si>
     <t>Package popularity (rank out of total # of packages)</t>
   </si>
   <si>
@@ -88,24 +67,15 @@
     <t>dirname</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-1019</t>
-  </si>
-  <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-1019/119741/Replication/dofiles</t>
   </si>
   <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-1019/119741/Replication/makedata</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-1019/tools</t>
-  </si>
-  <si>
     <t>filename</t>
   </si>
   <si>
-    <t>PII_stata_scan.do</t>
-  </si>
-  <si>
     <t>AppendixTable1.do</t>
   </si>
   <si>
@@ -182,9 +152,6 @@
   </si>
   <si>
     <t>8_gen_merged_sample.do</t>
-  </si>
-  <si>
-    <t>convert_graphs.do</t>
   </si>
 </sst>
 </file>
@@ -228,7 +195,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D13"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -236,13 +203,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2">
@@ -262,7 +229,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -274,7 +241,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -286,7 +253,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -298,7 +265,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>81</v>
+        <v>293</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -310,10 +277,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>92</v>
+        <v>499</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.16495867073535919</v>
       </c>
       <c r="D7"/>
     </row>
@@ -322,10 +289,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>267</v>
+        <v>547</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.18082644045352936</v>
       </c>
       <c r="D8"/>
     </row>
@@ -334,10 +301,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>279</v>
+        <v>563</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.18611569702625275</v>
       </c>
       <c r="D9"/>
     </row>
@@ -346,10 +313,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>503</v>
+        <v>889</v>
       </c>
       <c r="C10">
-        <v>0.16677719354629517</v>
+        <v>0.29388430714607239</v>
       </c>
       <c r="D10"/>
     </row>
@@ -358,10 +325,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>565</v>
+        <v>1414</v>
       </c>
       <c r="C11">
-        <v>0.18733422458171844</v>
+        <v>0.46743801236152649</v>
       </c>
       <c r="D11"/>
     </row>
@@ -370,10 +337,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>566</v>
+        <v>1428</v>
       </c>
       <c r="C12">
-        <v>0.18766577541828156</v>
+        <v>0.47206610441207886</v>
       </c>
       <c r="D12"/>
     </row>
@@ -382,96 +349,12 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>868</v>
+        <v>1678</v>
       </c>
       <c r="C13">
-        <v>0.28779840469360352</v>
+        <v>0.5547107458114624</v>
       </c>
       <c r="D13"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>1124</v>
-      </c>
-      <c r="C14">
-        <v>0.37267905473709106</v>
-      </c>
-      <c r="D14"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>1423</v>
-      </c>
-      <c r="C15">
-        <v>0.47181698679924011</v>
-      </c>
-      <c r="D15"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>1553</v>
-      </c>
-      <c r="C16">
-        <v>0.51492041349411011</v>
-      </c>
-      <c r="D16"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>1621</v>
-      </c>
-      <c r="C17">
-        <v>0.53746682405471802</v>
-      </c>
-      <c r="D17"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>1798</v>
-      </c>
-      <c r="C18">
-        <v>0.5961538553237915</v>
-      </c>
-      <c r="D18"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>1817</v>
-      </c>
-      <c r="C19">
-        <v>0.60245358943939209</v>
-      </c>
-      <c r="D19"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>1859</v>
-      </c>
-      <c r="C20">
-        <v>0.61637932062149048</v>
-      </c>
-      <c r="D20"/>
     </row>
   </sheetData>
 </worksheet>
@@ -479,239 +362,223 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B27"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
         <v>25</v>
-      </c>
-      <c r="B7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
